--- a/SUBNET.xlsx
+++ b/SUBNET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhon_\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhon_\OneDrive\Desktop\DatacomsFinalProject\Datacoms-Project-Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBB9070-4862-4DCA-BE84-08CFE1EF6CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1450FB-FAF0-4460-91EB-E4605D892948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F5FDC5C9-368F-40BA-A95A-B5E92A99DE36}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Range</t>
   </si>
@@ -73,6 +72,18 @@
   </si>
   <si>
     <t>Total Host (Per Subnet)</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>/22</t>
+  </si>
+  <si>
+    <t>Network Prefix</t>
+  </si>
+  <si>
+    <t>Mask</t>
   </si>
 </sst>
 </file>
@@ -458,18 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF74E-88E9-4DF0-8417-AF8D82DE50BA}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -537,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -591,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -665,7 +679,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,7 +702,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -706,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -724,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -742,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -767,7 +781,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -785,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -802,8 +816,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -819,6 +839,21 @@
       </c>
       <c r="F16">
         <v>0</v>
+      </c>
+      <c r="O16">
+        <v>11111111</v>
+      </c>
+      <c r="P16">
+        <v>11111111</v>
+      </c>
+      <c r="Q16">
+        <v>11111100</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
